--- a/UFTAI_Mobile_Android_iOS/Default.xlsx
+++ b/UFTAI_Mobile_Android_iOS/Default.xlsx
@@ -187,7 +187,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -198,9 +200,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -542,18 +542,18 @@
       </c>
     </row>
     <row>
-      <c s="2" t="s">
+      <c s="3" t="s">
         <v>5</v>
       </c>
-      <c s="3" t="s">
+      <c s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row>
-      <c s="2" t="s">
+      <c s="3" t="s">
         <v>1</v>
       </c>
-      <c s="3" t="s">
+      <c s="2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/UFTAI_Mobile_Android_iOS/Default.xlsx
+++ b/UFTAI_Mobile_Android_iOS/Default.xlsx
@@ -187,9 +187,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -200,7 +198,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -542,18 +542,18 @@
       </c>
     </row>
     <row>
-      <c s="3" t="s">
+      <c s="2" t="s">
         <v>5</v>
       </c>
-      <c s="2" t="s">
+      <c s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row>
-      <c s="3" t="s">
+      <c s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c s="3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/UFTAI_Mobile_Android_iOS/Default.xlsx
+++ b/UFTAI_Mobile_Android_iOS/Default.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>identifier</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>ostype</t>
+  </si>
+  <si>
+    <t>model</t>
   </si>
   <si>
     <t>com.Advantage.aShopping</t>
@@ -520,17 +523,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="22.6015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.41796875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.03515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.23828125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.73828125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
@@ -540,22 +542,27 @@
       <c t="s">
         <v>4</v>
       </c>
+      <c t="s">
+        <v>5</v>
+      </c>
     </row>
     <row>
       <c s="2" t="s">
-        <v>5</v>
-      </c>
-      <c s="3" t="s">
+        <v>6</v>
+      </c>
+      <c s="2" t="s">
         <v>3</v>
       </c>
+      <c s="3"/>
     </row>
     <row>
       <c s="2" t="s">
         <v>1</v>
       </c>
-      <c s="3" t="s">
+      <c s="2" t="s">
         <v>2</v>
       </c>
+      <c s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UFTAI_Mobile_Android_iOS/Default.xlsx
+++ b/UFTAI_Mobile_Android_iOS/Default.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+  <si>
+    <t>iPhone 11</t>
+  </si>
   <si>
     <t>identifier</t>
   </si>
@@ -24,6 +27,9 @@
   </si>
   <si>
     <t>IOS</t>
+  </si>
+  <si>
+    <t>SM-G960F</t>
   </si>
   <si>
     <t>ANDROID</t>
@@ -525,44 +531,50 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="1" width="27.03515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.23828125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.73828125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
       <c t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row>
       <c s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c s="2" t="s">
-        <v>3</v>
-      </c>
-      <c s="3"/>
+        <v>5</v>
+      </c>
+      <c s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row>
       <c s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="s">
-        <v>2</v>
-      </c>
-      <c s="3"/>
+        <v>3</v>
+      </c>
+      <c s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UFTAI_Mobile_Android_iOS/Default.xlsx
+++ b/UFTAI_Mobile_Android_iOS/Default.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seobo\Documents\GitHub\UFTAI_Mobile_Android_iOS\UFTAI_Mobile_Android_iOS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9303E27E-6259-48EC-A0BE-1049EF122B35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Action1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="40001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>identifier</t>
   </si>
@@ -36,137 +42,19 @@
   </si>
   <si>
     <t>com.Advantage.aShopping</t>
+  </si>
+  <si>
+    <t>device_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,6 +119,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -522,47 +420,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.03515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.23828125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.73828125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1">
-      <c t="s">
+    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c s="3"/>
-    </row>
-    <row>
-      <c s="2" t="s">
-        <v>1</v>
-      </c>
-      <c s="2" t="s">
-        <v>2</v>
-      </c>
-      <c s="3"/>
+      <c r="C3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -570,19 +474,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row r="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UFTAI_Mobile_Android_iOS/Default.xlsx
+++ b/UFTAI_Mobile_Android_iOS/Default.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seobo\Documents\GitHub\UFTAI_Mobile_Android_iOS\UFTAI_Mobile_Android_iOS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9303E27E-6259-48EC-A0BE-1049EF122B35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Action1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="40001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>identifier</t>
   </si>
@@ -29,6 +23,9 @@
     <t>com.hpe.iShopping</t>
   </si>
   <si>
+    <t>device_model</t>
+  </si>
+  <si>
     <t>IOS</t>
   </si>
   <si>
@@ -38,23 +35,141 @@
     <t>ostype</t>
   </si>
   <si>
-    <t>model</t>
+    <t>device_id</t>
   </si>
   <si>
     <t>com.Advantage.aShopping</t>
-  </si>
-  <si>
-    <t>device_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,10 +221,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
@@ -119,16 +234,6 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -420,53 +525,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="27" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="27" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.23828125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row customFormat="1">
+      <c t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s">
+        <v>5</v>
+      </c>
+      <c t="s">
+        <v>2</v>
+      </c>
+      <c t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>1</v>
+      </c>
+      <c s="1" t="s">
+        <v>3</v>
+      </c>
+      <c s="1"/>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>7</v>
+      </c>
+      <c s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3"/>
+      <c s="1"/>
+      <c s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -474,20 +581,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row ht="15.1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
